--- a/CavemanNinja/CavemanNinja/Content/Data/collision matrix.xlsx
+++ b/CavemanNinja/CavemanNinja/Content/Data/collision matrix.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>GROUND</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>DINO</t>
+  </si>
+  <si>
+    <t>BORDER</t>
   </si>
 </sst>
 </file>
@@ -110,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -125,6 +128,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -407,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K10"/>
+  <dimension ref="B1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -421,7 +427,7 @@
     <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="1">
         <v>1</v>
       </c>
@@ -446,8 +452,11 @@
       <c r="K1" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +481,11 @@
       <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -488,8 +500,9 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -504,8 +517,9 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -520,8 +534,9 @@
       <c r="I5" s="3"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -536,8 +551,9 @@
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -552,8 +568,9 @@
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -568,8 +585,9 @@
       <c r="I8" s="3"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -584,8 +602,9 @@
       <c r="I9" s="5"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -600,6 +619,24 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CavemanNinja/CavemanNinja/Content/Data/collision matrix.xlsx
+++ b/CavemanNinja/CavemanNinja/Content/Data/collision matrix.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>GROUND</t>
   </si>
@@ -38,9 +38,6 @@
     <t>PLAYER ATTACK</t>
   </si>
   <si>
-    <t>PLAYER GROUND</t>
-  </si>
-  <si>
     <t>PLAYER SHOT</t>
   </si>
   <si>
@@ -51,14 +48,29 @@
   </si>
   <si>
     <t>BORDER</t>
+  </si>
+  <si>
+    <t>PROXIMITY</t>
+  </si>
+  <si>
+    <t>PLAYER DETECT
+GROUND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -113,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -131,6 +143,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -413,21 +431,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L11"/>
+  <dimension ref="B1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.140625" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="18.42578125" style="2" customWidth="1"/>
-    <col min="4" max="10" width="16.5703125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="2"/>
+    <col min="4" max="16384" width="18.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="1">
         <v>1</v>
       </c>
@@ -455,8 +473,11 @@
       <c r="L1" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,23 +490,26 @@
       <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -501,8 +525,9 @@
       <c r="J3" s="4"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -518,8 +543,9 @@
       <c r="J4" s="4"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -535,8 +561,9 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -552,13 +579,14 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -567,15 +595,16 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -586,13 +615,14 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -603,13 +633,14 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -620,13 +651,14 @@
       <c r="J10" s="5"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -637,8 +669,28 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CavemanNinja/CavemanNinja/Content/Data/collision matrix.xlsx
+++ b/CavemanNinja/CavemanNinja/Content/Data/collision matrix.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="B1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.140625" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -594,7 +594,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="8"/>
       <c r="L7" s="4"/>
       <c r="M7" s="3"/>

--- a/CavemanNinja/CavemanNinja/Content/Data/collision matrix.xlsx
+++ b/CavemanNinja/CavemanNinja/Content/Data/collision matrix.xlsx
@@ -47,14 +47,14 @@
     <t>DINO</t>
   </si>
   <si>
-    <t>BORDER</t>
-  </si>
-  <si>
     <t>PROXIMITY</t>
   </si>
   <si>
     <t>PLAYER DETECT
 GROUND</t>
+  </si>
+  <si>
+    <t>ITEM</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="B1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.140625" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -491,7 +491,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
@@ -505,8 +505,8 @@
       <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>8</v>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -560,7 +560,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -596,7 +596,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="4"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -676,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
